--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_영어_유의어_Day04.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_영어_유의어_Day04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,24 +875,196 @@
 3. 침입하다, 개입하다</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1, 열정적인</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221205</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>coherent
+1. 솔직한
+2. 논리적인, 타당한
+3. 암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2, 논리적인, 타당한</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>encroach
+1. 침입하다, 개입하다
+2. 집어 올리다, 회복하다
+3. 암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 개입하다</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pass up
+1. 침입하다, 개입하다
+2. 거절하다, 거부하다
+3. 논리적인, 타당한</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2, 거절하다, 거부하다</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>rational
+1. 조사하다
+2. 논리적인, 타당한
+3. 솔직한</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>pass종료</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2, 논리적인, 타당한</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>unreserved
+1. 논리적인, 타당한
+2. 열정적인
+3. 솔직한</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3, 솔직한</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>connotational
+1. 논리적인, 타당한
+2. 침입하다, 개입하다
+3. 암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3, 암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>encroach
+1. 침입하다, 개입하다
+2. 집어 올리다, 회복하다
+3. 암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1, 열정적인</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20221205</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22</t>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 개입하다</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20221206</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
     </row>
